--- a/docs/3数据库设计/portal数据字典.xlsx
+++ b/docs/3数据库设计/portal数据字典.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7500"/>
   </bookViews>
@@ -11,10 +11,11 @@
     <sheet name="代码表" sheetId="5" r:id="rId2"/>
     <sheet name="预警关键字表" sheetId="1" r:id="rId3"/>
     <sheet name="企业公告预警表" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="583">
   <si>
     <t>目标表中文字段</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -361,9 +362,6 @@
     <t>RESEARCH_BASICINFO</t>
   </si>
   <si>
-    <t>ROADSHOW</t>
-  </si>
-  <si>
     <t>ROLE</t>
   </si>
   <si>
@@ -1401,14 +1399,918 @@
   </si>
   <si>
     <t>RD_REGION_FINANCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下为2018.01.17新增字典数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WARNING_PUSH_CONFIG</t>
+  </si>
+  <si>
+    <t>舆情推送配置表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XW_NEWS_COMPANY</t>
+  </si>
+  <si>
+    <t>企业新闻关联表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XW_ANNOUNCE_COMPANY</t>
+  </si>
+  <si>
+    <t>WARNING_NEWS_RESULT</t>
+  </si>
+  <si>
+    <t>舆情新闻结果表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WARNING_NEWS_HIGHLIGHT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舆情新闻突出表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VW_COMPY_WARNINGS</t>
+  </si>
+  <si>
+    <t>SYS_IMPORT_TABLE_02</t>
+  </si>
+  <si>
+    <t>SYS_IMPORT_TABLE_03</t>
+  </si>
+  <si>
+    <t>ROADSHOW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PFCOMPY_BASICINFO</t>
+  </si>
+  <si>
+    <t>PERSON_LEGALREPRESENT_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSON_EMPLOYEEXYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSON_DISHONEST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSON_COMPY_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_WHU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_SECURITY_XW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_REG_WHU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_PFCOMPY_SCORE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_BASICINFO_20171116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_BASICINFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_20171030</t>
+  </si>
+  <si>
+    <t>NEWS</t>
+  </si>
+  <si>
+    <t>MY_JOB1</t>
+  </si>
+  <si>
+    <t>INTERFACE</t>
+  </si>
+  <si>
+    <t>接口表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACTOR_0508</t>
+  </si>
+  <si>
+    <t>FACTOR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_SID_CD_BKP0828</t>
+  </si>
+  <si>
+    <t>COMPY_SID_CD_AMAC</t>
+  </si>
+  <si>
+    <t>COMPY_NM2</t>
+  </si>
+  <si>
+    <t>COMPY_NM1</t>
+  </si>
+  <si>
+    <t>COMPY_EXPOSURE</t>
+  </si>
+  <si>
+    <t>COMPY_EVENT_TYPE_0407</t>
+  </si>
+  <si>
+    <t>COMPY_BASICINFO_BKP_20170216</t>
+  </si>
+  <si>
+    <t>COMPY_BASICINFO_BKP_0209</t>
+  </si>
+  <si>
+    <t>COMPY_ANNOUNCE_ALARM_1204</t>
+  </si>
+  <si>
+    <t>COMPY_ANNOUNCE_ALARM_0309</t>
+  </si>
+  <si>
+    <t>COMPY_ANNOUNCE_ALARM_0306</t>
+  </si>
+  <si>
+    <t>COMPY_ANNOUNCE_ALARM_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WARNING_NEWS_COMPY_SCORE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舆情企业新闻分数表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WARNING_NEWS_COMPY_IMPORTANCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舆情企业重要表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VW_INDUSTRY_SUMMARY_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业总结表视图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业预警视图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VW_COMPY_INFO_HOMEPAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业主页详情视图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VW_COMPY_INDUSTRY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业行业视图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VW_COMPY_FACTOR_FINANCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业金融代理视图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VW_BOND_VIOLATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券违法视图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMP_NEWS_BASICINFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻基础表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMP_INVESTED_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻基础临时表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资临时表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMP_COMPY_BASICINFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业基础临时表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_PFCOMPY_TYPE_OTHERS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_IMPORT_TABLE_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHEET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RULE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESEARCH_CONTENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究内容表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RATING_RECORD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PFUND_PUBLICINFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PFUND_BASICINFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSON_SHAREHOLDER_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSON_LITIGANT_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募基础表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PFCOMPY_TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失信表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSON_ADMINPENALTY_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息安全表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_SCORE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻得分表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募企业新闻评分表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东人信用公示表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当事人信用公示表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定代表人信用公示表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工信用公示表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信用公示表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政处罚信用公示表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募企业基础表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募企业类型表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级记录表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募公共信息表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWFORTUNE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新财富表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKP_RATING_CODE_LIST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACTOR_OPTION_0508</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKP_ALARM_KEYWORD_0306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKP_MARKET_ABBR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKP_FINANSUBJECT_DISP_0209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKP_ALARM_KEYWORD_0322</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警关键词常量表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融主体分散常量表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场简称常量表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级代码常量列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACTOR_OPTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACTOR_OPERATION_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACTOR_FINANCE_20161223</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACTOR_ELEMENT_XW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPOSURE_FACTOR_XW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择因素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项因素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作因素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融因素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻展出因素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPOSURE_FACTOR_OPER_XW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻曝光因素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPOSURE_FACTOR_FINAN_XW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融新闻曝光因素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPOSURE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曝光表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOND_WARRANTOR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETL_KETTLE_LOG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETL_KETTLE_JOBLOG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水壶数据工作日志表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水壶数据加载日志表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUMMY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEL_USER_INFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户删除信息表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEL_SCOMPY_BASICINFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEL_COMPY_FOCUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业关注删除表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEL_COMPY_AFFILTRADE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业单位贸易删除表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEL_ACCOUNT_ENTERPRISE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业帐号删除表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_TRADEMARK_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募企业商标表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_TOP5SUPP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_TOP5CUST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业前五客户表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业前五名增刊表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_TOP5ACCTREC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业ACC会议表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_TOP5ACCTPAY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业ACC支付表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_SID_CD_YF0713</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_SID_CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业ID码表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_SHARETRANSFER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业股权转让表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_SHAREHOLDER_BKP_0116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业股东表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_SDPUNISH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_REGION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业区域表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_QUALTAX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业税收表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_PERFFORECAST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业性能预测表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_ORDERLIST_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业信用公示排行版表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_NMLIST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业名称表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_MGRRELHOLDINGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业控股表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_LPPOSITION_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_LPINVEST_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业LP位置信用公示表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业LP投资信用公示表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_LITIGANT_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_LIQUIDATION_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业当事人信用公示表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业清算信用公示表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_INDUSTRY_BKP_0217</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业产业表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_INCOMESTATE_TEMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业收入状况临时表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_IMPSHAREHDTRD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_FINANAUDIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业财务审计表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_FINALSHAREHD_XYGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_FACTOR_OPERATION_BKP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业操作因素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_FACTOR_OPERATION_0508</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_FACTOR_FINANCE_PORTAL_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业因素金融门户表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_FACTOR_FINANCE_PORTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_FACTOR_FINANCE_0705</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业金融因素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_EXPOSURE_0508</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业曝光表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_EVENT_TYPE_0410</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业事件类型表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_EMPLOYEE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业员工表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_ELEMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业要素表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_DISHONEST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失信企业表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_CHANGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业改变表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_CASHFLOW_TEMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_BASICINFO_XYZG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业基础信用公式表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业基础表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_BASICINFO_AMAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_BALANCESHEET_TEMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业资产负债表临时表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业现金流临时表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPY_ANNOUNCE_ALARM_TMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业报警临时表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券担保人表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOND_CREDITCHG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHORIZE_INTERFACE_XW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻授权接口表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSESS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANNOUNCE_COLUMN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公布栏表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>allcompy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有企业表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,13 +2426,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1549,7 +2465,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1635,6 +2551,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1696,7 +2621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1731,7 +2656,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1908,882 +2833,1897 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="21.625" style="23" customWidth="1"/>
     <col min="2" max="2" width="23" style="23" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="23" customWidth="1"/>
     <col min="4" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="B2" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3">
       <c r="B7" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="26" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
+      <c r="C10" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="C11" s="24" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="B13" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="B14" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3">
       <c r="B21" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="B24" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="B25" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="B26" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="B27" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="29" t="s">
-        <v>240</v>
-      </c>
       <c r="C28" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="B29" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C31" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3">
       <c r="B33" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="24" t="s">
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="24" t="s">
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="24" t="s">
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:3">
       <c r="B42" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
       <c r="B43" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
       <c r="B44" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:3">
       <c r="B46" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
       <c r="B47" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:3">
       <c r="B49" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="33"/>
       <c r="B50" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C50" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="C50" s="34" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="33"/>
       <c r="B53" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="C53" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="C53" s="36" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="33"/>
       <c r="B54" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="C54" s="36" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="B57" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="B58" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="B59" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:3">
       <c r="B61" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="B62" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="B63" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="B64" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C64" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="24" t="s">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C65" s="24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="24" t="s">
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C66" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:3">
       <c r="B68" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B77" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B78" s="24" t="s">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="C78" s="24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B79" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:3">
       <c r="B80" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="B81" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="B82" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="B85" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="B88" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="B84" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B87" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="23" t="s">
-        <v>278</v>
-      </c>
       <c r="B92" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C93" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C92" s="24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B93" s="24" t="s">
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C94" s="30" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B94" s="30" t="s">
+    <row r="95" spans="1:3">
+      <c r="B95" s="30" t="s">
         <v>214</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B95" s="30" t="s">
-        <v>215</v>
       </c>
       <c r="C95" s="30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="B96" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C96" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="B97" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C97" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="B98" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" s="30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="B99" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C99" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" s="30" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="30" t="s">
+    <row r="101" spans="1:3">
+      <c r="B101" s="24" t="s">
         <v>221</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="24" t="s">
-        <v>222</v>
       </c>
       <c r="C101" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="B102" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C102" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="B103" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C103" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="B104" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105" s="24" t="s">
         <v>226</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B105" s="24" t="s">
-        <v>227</v>
       </c>
       <c r="C105" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B109" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="C107" s="24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:3">
       <c r="C110" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="B111" s="24"/>
       <c r="C111" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="24"/>
+    <row r="114" spans="1:5">
+      <c r="A114" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="C117" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="B121" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="B124" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="B125" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="B126" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="C131" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="C132" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="C133" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="C134" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="C135" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="C150" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="C153" s="23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="C159" s="23" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="C160" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C162" s="23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="C163" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="C170" s="23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="B179" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="B180" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="C181" s="23" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="C182" s="23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="C183" s="23" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="C184" s="23" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="B185" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="B186" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="B187" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3">
+      <c r="B188" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C188" s="23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3">
+      <c r="B189" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C189" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3">
+      <c r="B190" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3">
+      <c r="B191" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="B192" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="B197" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="C199" s="23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="C203" s="23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="C204" s="23" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="C206" s="23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="C208" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="C210" s="23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="C211" s="23" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="C214" s="23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="C215" s="23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="C216" s="23" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="C217" s="23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="C218" s="23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="C219" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="C220" s="23" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="C221" s="23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="B222" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C222" s="23" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="B223" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C223" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="C224" s="23" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="C225" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="C226" s="23" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="C227" s="23" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="C228" s="23" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C229" s="23" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="C230" s="23" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="C231" s="23" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="C232" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="C233" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="C234" s="23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="C235" s="23" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C236" s="23" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C237" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C238" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C239" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C240" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="C241" s="23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="C242" s="23" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="C243" s="23" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="C244" s="23" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="C245" s="23" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="C246" s="23" t="s">
+        <v>580</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A114:C114"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B50:C50" location="工商企业行业映射表!A1" display="工商企业行业映射表"/>
@@ -2792,18 +4732,19 @@
     <hyperlink ref="A52" location="ratingdog各省市城投企业情况!A1" display="企业其他"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
@@ -2814,47 +4755,47 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="G1" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -2863,155 +4804,155 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>45</v>
@@ -3020,35 +4961,35 @@
         <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>48</v>
@@ -3057,52 +4998,52 @@
         <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>337</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -3115,14 +5056,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.25" style="1" customWidth="1"/>
@@ -3132,12 +5073,12 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
         <v>74</v>
       </c>
@@ -3148,7 +5089,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3165,7 +5106,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3186,7 +5127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3205,7 +5146,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +5163,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -3243,7 +5184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -3262,7 +5203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -3281,7 +5222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>30</v>
       </c>
@@ -3298,7 +5239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -3324,14 +5265,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
@@ -3342,7 +5283,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -3352,9 +5293,9 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>39</v>
@@ -3364,7 +5305,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -3372,7 +5313,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -3388,12 +5329,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="22.5">
       <c r="A5" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>45</v>
@@ -3402,13 +5343,13 @@
         <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
         <v>43</v>
       </c>
@@ -3422,13 +5363,13 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
@@ -3442,11 +5383,11 @@
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -3458,12 +5399,12 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>52</v>
       </c>
@@ -3477,11 +5418,11 @@
         <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
         <v>56</v>
       </c>
@@ -3495,12 +5436,12 @@
         <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
         <v>59</v>
       </c>
@@ -3511,10 +5452,10 @@
         <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22.5">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -3525,10 +5466,10 @@
         <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -3540,13 +5481,13 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
         <v>68</v>
       </c>
@@ -3563,7 +5504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
         <v>71</v>
       </c>
@@ -3578,10 +5519,10 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="20"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="22"/>
     </row>
   </sheetData>
@@ -3594,4 +5535,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/3数据库设计/portal数据字典.xlsx
+++ b/docs/3数据库设计/portal数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="640">
   <si>
     <t>目标表中文字段</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2304,6 +2304,177 @@
   <si>
     <t xml:space="preserve">   </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  CREATE TABLE "CS_PORTAL"."SHEET" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHEET_ID NUMBER(*,0) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHEET_CODE VARCHAR2(50 BYTE) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHEET_L1 VARCHAR2(100 BYTE) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHEET_L2 VARCHAR2(100 BYTE) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHEET_L3 VARCHAR2(100 BYTE) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHEET_TYPE NUMBER(*,0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHEET_LEVEL NUMBER(*,0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISDEL NUMBER(*,0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE_DT TIMESTAMP (6), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE_USER VARCHAR2(100 BYTE) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT "XPKSHEET" PRIMARY KEY ("SHEET_ID", "SHEET_TYPE")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  USING INDEX PCTFREE 10 INITRANS 2 MAXTRANS 255 COMPUTE STATISTICS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  STORAGE(INITIAL 65536 NEXT 1048576 MINEXTENTS 1 MAXEXTENTS 2147483645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PCTINCREASE 0 FREELISTS 1 FREELIST GROUPS 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BUFFER_POOL DEFAULT FLASH_CACHE DEFAULT CELL_FLASH_CACHE DEFAULT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TABLESPACE "USERS"  ENABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ) SEGMENT CREATION IMMEDIATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PCTFREE 10 PCTUSED 40 INITRANS 1 MAXTRANS 255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOCOMPRESS LOGGING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TABLESPACE "USERS" ;</t>
+  </si>
+  <si>
+    <t>rule:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CREATE TABLE "CS_PORTAL"."RULE" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE_ID NUMBER(*,0) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE_NM VARCHAR2(100 BYTE) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODEL_ID NUMBER(*,0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT "XPKRULE" PRIMARY KEY ("RULE_ID", "SHEET_ID", "SHEET_TYPE")</t>
+  </si>
+  <si>
+    <t>XW_NEWS_COMPANY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CREATE TABLE "CS_PORTAL"."XW_NEWS_COMPANY" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWS_BASICINFO_SID NUMBER(22,0) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPANY_ID NUMBER(22,0) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCORE NUMBER(*,0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORTANCE NUMBER(*,0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE_DT DATE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE_USER VARCHAR2(50 BYTE), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE_DT DATE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE_USER VARCHAR2(50 BYTE), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEVANCE NUMBER(24,8), </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT "XPKXW_NEWS_COMPANY" PRIMARY KEY ("NEWS_BASICINFO_SID", "COMPANY_ID")</t>
+  </si>
+  <si>
+    <t>WARNING_NEWS_RESULT:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CREATE TABLE "CS_PORTAL"."WARNING_NEWS_RESULT" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABEL NUMBER(*,0) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITLE VARCHAR2(300 BYTE) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUBLISH_TIME DATE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTRY_TIME DATE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANALYSIS_TIME_COST NUMBER(*,0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT "XPKWARNING_NEWS_RESULT" PRIMARY KEY ("NEWS_BASICINFO_SID", "RULE_ID", "LABEL", "COMPANY_ID")</t>
+  </si>
+  <si>
+    <t>COMPY_EVENT_TYPE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CREATE TABLE "CS_PORTAL"."COMPY_EVENT_TYPE" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID NUMBER GENERATED BY DEFAULT AS IDENTITY MINVALUE 1 MAXVALUE 9999999999999999999999999999 INCREMENT BY 1 START WITH 111 CACHE 20 NOORDER  NOCYCLE  NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_NAME VARCHAR2(50 BYTE) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORTANCE NUMBER(2,0) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATION_TIME TIMESTAMP (6) NOT NULL ENABLE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE_TIME TIMESTAMP (6), </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT "SYS_C0019578" PRIMARY KEY ("ID")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TABLESPACE "CS_PORTAL"  ENABLE</t>
   </si>
 </sst>
 </file>
@@ -2833,7 +3004,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2843,7 +3014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A96" workbookViewId="0">
       <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
@@ -5539,12 +5710,600 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B143"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>584</v>
+      </c>
+      <c r="B33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>584</v>
+      </c>
+      <c r="B64" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>584</v>
+      </c>
+      <c r="B98" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="B99" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="B102" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="B103" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="B104" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="B105" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="B106" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="B108" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>584</v>
+      </c>
+      <c r="B130" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="B131" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="B132" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="B133" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="B134" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
